--- a/docs/RiskAssessment.xlsx
+++ b/docs/RiskAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zake3\Desktop\GitHub\Java\Java Project\IMS-Starter\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B1D5A4-C405-4F86-9D83-EDED7D3B0CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB80AF3-AFB2-40B6-A0F2-10B4F94370AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C00451D0-CB44-4EED-9DFF-DE72342549B6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -70,20 +70,71 @@
     <t>High</t>
   </si>
   <si>
-    <t>devs</t>
-  </si>
-  <si>
     <t>Try your best to recover files using older commits</t>
   </si>
   <si>
     <t xml:space="preserve">maintain protocol of branching </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Computer breakdown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss of saved files </t>
+  </si>
+  <si>
+    <t xml:space="preserve">try to resolve the issue and recover any lost files </t>
+  </si>
+  <si>
+    <t>make sure to commit small changes so you always have the updated files.</t>
+  </si>
+  <si>
+    <t>3. compatability error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compatibility issues with software  </t>
+  </si>
+  <si>
+    <t>try and find altervative software which is compatible.</t>
+  </si>
+  <si>
+    <t>make sure the software is compatible before starting project</t>
+  </si>
+  <si>
+    <t>4. Sensitive info</t>
+  </si>
+  <si>
+    <t>leaks of sensitive informations like passwords etc.</t>
+  </si>
+  <si>
+    <t>try to reset passwords.</t>
+  </si>
+  <si>
+    <t>setup two-factor authentication to beef up security</t>
+  </si>
+  <si>
+    <t>5. Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tight deadline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prioritise the minium to get the application working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">make sure to plan ahead and use time wisely. </t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Devs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +142,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,10 +196,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -120,8 +210,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,7 +539,7 @@
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,57 +582,113 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
